--- a/results/average_moves_per_algorithm.xlsx
+++ b/results/average_moves_per_algorithm.xlsx
@@ -24,26 +24,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
-  <si>
-    <t>algorithm</t>
-  </si>
-  <si>
-    <t>#moves</t>
-  </si>
-  <si>
-    <t>#games</t>
-  </si>
-  <si>
-    <t>random</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+  <si>
+    <t>algoritme</t>
+  </si>
+  <si>
+    <t>single step, normal win</t>
+  </si>
+  <si>
+    <t>single step, path free win</t>
+  </si>
+  <si>
+    <t>max step, path free win</t>
+  </si>
+  <si>
+    <t>max step, path free win, non recurrent</t>
+  </si>
+  <si>
+    <t>average moves 6x6 game #1</t>
+  </si>
+  <si>
+    <t>amount of measurements</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>1 mln</t>
+  </si>
+  <si>
+    <t>average moves 9x9 game #4</t>
+  </si>
+  <si>
+    <t>1k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -71,8 +100,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -353,70 +388,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="5" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2">
+        <v>597.41656999999998</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="2">
+        <v>103.05871999999999</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>210003</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
+      <c r="B4" s="2">
+        <v>101.35699</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>67187</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>42092</v>
-      </c>
-      <c r="D5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>135287</v>
-      </c>
-      <c r="D6">
-        <v>5000</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>90.427689999999998</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6408.165</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/average_moves_per_algorithm.xlsx
+++ b/results/average_moves_per_algorithm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>algoritme</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>1k</t>
+  </si>
+  <si>
+    <t>queue_hiele</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,6 +475,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>19.520630000000001</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results/average_moves_per_algorithm.xlsx
+++ b/results/average_moves_per_algorithm.xlsx
@@ -24,22 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>algoritme</t>
-  </si>
-  <si>
-    <t>single step, normal win</t>
-  </si>
-  <si>
-    <t>single step, path free win</t>
-  </si>
-  <si>
-    <t>max step, path free win</t>
-  </si>
-  <si>
-    <t>max step, path free win, non recurrent</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
   <si>
     <t>average moves 6x6 game #1</t>
   </si>
@@ -59,7 +44,40 @@
     <t>1k</t>
   </si>
   <si>
-    <t>queue_hiele</t>
+    <t>step size</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>non recurring</t>
+  </si>
+  <si>
+    <t>win condition</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>check path free</t>
+  </si>
+  <si>
+    <t>make path free</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>queue</t>
   </si>
 </sst>
 </file>
@@ -83,12 +101,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,12 +133,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -391,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,88 +438,251 @@
     <col min="1" max="1" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="5" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>597.41656999999998</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>103.05871999999999</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>29.410329999999998</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <f>D2</f>
+        <v>597.41656999999998</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>221.44657000000001</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>19.520630000000001</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>103.05871999999999</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>101.35699</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>101.35699</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>90.427689999999998</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>6408.165</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>597.41656999999998</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>103.05871999999999</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>101.35699</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="2">
         <v>90.427689999999998</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2">
-        <v>6408.165</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>19.520630000000001</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
+      <c r="E17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2">
+        <v>23.163900000000002</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/results/average_moves_per_algorithm.xlsx
+++ b/results/average_moves_per_algorithm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
   <si>
     <t>average moves 6x6 game #1</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>queue</t>
+  </si>
+  <si>
+    <t>10k</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,6 +123,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -133,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,6 +154,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -427,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,8 +618,12 @@
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="G12" s="4">
+        <v>9918.8912</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -625,8 +641,12 @@
       <c r="E14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="G14" s="5">
+        <v>9918</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -645,13 +665,13 @@
         <v>2</v>
       </c>
       <c r="G15" s="2">
-        <v>6408.165</v>
+        <v>6408</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -668,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -683,6 +703,40 @@
       </c>
       <c r="E18" s="2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2">
+        <v>70278</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2">
+        <v>8849</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/results/average_moves_per_algorithm.xlsx
+++ b/results/average_moves_per_algorithm.xlsx
@@ -104,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +129,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -142,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +163,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -442,7 +451,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,7 +724,7 @@
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="6">
         <v>70278</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -732,7 +741,7 @@
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="6">
         <v>8849</v>
       </c>
       <c r="H21" s="2" t="s">

--- a/results/average_moves_per_algorithm.xlsx
+++ b/results/average_moves_per_algorithm.xlsx
@@ -77,10 +77,10 @@
     <t>yes</t>
   </si>
   <si>
-    <t>queue</t>
-  </si>
-  <si>
     <t>10k</t>
+  </si>
+  <si>
+    <t>jam</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +500,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="2">
-        <v>597.41656999999998</v>
+        <v>597</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
@@ -517,7 +517,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>103.05871999999999</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -534,7 +534,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>29.410329999999998</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>2</v>
@@ -552,7 +552,7 @@
       </c>
       <c r="D6" s="2">
         <f>D2</f>
-        <v>597.41656999999998</v>
+        <v>597</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>2</v>
@@ -569,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="2">
-        <v>221.44657000000001</v>
+        <v>221</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>2</v>
@@ -583,10 +583,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>19.520630000000001</v>
+        <v>19.5</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2</v>
@@ -603,10 +603,10 @@
         <v>12</v>
       </c>
       <c r="D11" s="2">
-        <v>103.05871999999999</v>
+        <v>103</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -622,7 +622,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="2">
-        <v>101.35699</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>2</v>
@@ -631,7 +631,7 @@
         <v>9918.8912</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -645,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="2">
-        <v>101.35699</v>
+        <v>101</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>2</v>
@@ -654,7 +654,7 @@
         <v>9918</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -668,7 +668,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="2">
-        <v>90.427689999999998</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>2</v>
@@ -691,7 +691,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="2">
-        <v>90.427689999999998</v>
+        <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>2</v>
@@ -708,7 +708,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="2">
-        <v>23.163900000000002</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>2</v>
@@ -728,7 +728,7 @@
         <v>70278</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
         <v>8849</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/results/average_moves_per_algorithm.xlsx
+++ b/results/average_moves_per_algorithm.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="19">
-  <si>
-    <t>average moves 6x6 game #1</t>
-  </si>
-  <si>
-    <t>amount of measurements</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="24">
   <si>
     <t>100k</t>
   </si>
@@ -38,12 +32,6 @@
     <t>1 mln</t>
   </si>
   <si>
-    <t>average moves 9x9 game #4</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
     <t>step size</t>
   </si>
   <si>
@@ -56,9 +44,6 @@
     <t>win condition</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -71,23 +56,53 @@
     <t>max</t>
   </si>
   <si>
-    <t xml:space="preserve">no </t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>10k</t>
   </si>
   <si>
-    <t>jam</t>
+    <t>AoM</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>jam (queue)</t>
+  </si>
+  <si>
+    <t>game 1</t>
+  </si>
+  <si>
+    <t>game 2</t>
+  </si>
+  <si>
+    <t>game 3</t>
+  </si>
+  <si>
+    <t>game 4</t>
+  </si>
+  <si>
+    <t>game 5</t>
+  </si>
+  <si>
+    <t>game 6</t>
+  </si>
+  <si>
+    <t>All possible combinations of algorithms</t>
+  </si>
+  <si>
+    <t>All possible comparisons of algorithms</t>
+  </si>
+  <si>
+    <t>a/b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,25 +118,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -131,12 +142,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -144,11 +155,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -156,16 +256,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -448,305 +578,1692 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="B1:W44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="2" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="7.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="7.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="7.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="7.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
+        <v>597</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <v>2856</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="2">
+        <v>80200</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
+        <v>80085</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
+        <v>166694</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="5">
+        <v>597</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>103</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>1921</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>68061</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <v>72973</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="S4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="4">
+        <v>103</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E5" s="12">
+        <v>29.5</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>1178</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4">
+        <v>61333</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="12">
+        <v>29.5</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4">
+        <v>163</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>1014</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>5185</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="4">
+        <v>163</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="4">
+        <v>77</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>810</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>4490</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="S7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="4">
+        <v>77</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>598</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>3537</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="S8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="4">
+        <v>21.5</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4">
+        <v>138</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>783</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>3774</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="S9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V9" s="4">
+        <v>138</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4">
+        <v>65</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>617</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>3353</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="S10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V10" s="4">
+        <v>65</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>476</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>2704</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4">
+        <v>5489</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V11" s="4">
+        <v>18.8</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>787</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="S13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13" s="4">
+        <v>21.6</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="D19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" s="8"/>
+      <c r="N19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" s="8"/>
+      <c r="T19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="str">
+        <f>B3</f>
+        <v>single</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f t="shared" ref="C20:O20" si="0">C3</f>
+        <v>no</v>
+      </c>
+      <c r="D20" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>win</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
         <v>597</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5">
+        <f>G3</f>
+        <v>2856</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5">
+        <f>M3</f>
+        <v>166694</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5">
+        <f>K3</f>
+        <v>80085</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5">
+        <f>M3</f>
+        <v>166694</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="16">
+        <f>O3</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="5"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="str">
+        <f>B4</f>
+        <v>single</v>
+      </c>
+      <c r="C21" s="4" t="str">
+        <f t="shared" ref="C21:O21" si="1">C4</f>
+        <v>no</v>
+      </c>
+      <c r="D21" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>check path free</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="2">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="2">
-        <f>D2</f>
+      <c r="F21" s="4">
+        <f>E20/E21</f>
+        <v>5.7961165048543686</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4">
+        <f>G4</f>
+        <v>1921</v>
+      </c>
+      <c r="I21" s="4">
+        <f>H20/H21</f>
+        <v>1.4867256637168142</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4">
+        <f>I4</f>
+        <v>68061</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4">
+        <f>K4</f>
+        <v>72973</v>
+      </c>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4">
+        <f>M4</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="14">
+        <f>O4</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="str">
+        <f>B5</f>
+        <v>single</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f t="shared" ref="C22:N22" si="2">C5</f>
+        <v>no</v>
+      </c>
+      <c r="D22" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>make path free</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="2"/>
+        <v>29.5</v>
+      </c>
+      <c r="F22" s="4">
+        <f>E21/E22</f>
+        <v>3.4915254237288136</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4">
+        <f>G5</f>
+        <v>1178</v>
+      </c>
+      <c r="I22" s="4">
+        <f>H21/H22</f>
+        <v>1.6307300509337861</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4">
+        <f>I5</f>
+        <v>61333</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4">
+        <f>M5</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="14">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="str">
+        <f>B6</f>
+        <v>max</v>
+      </c>
+      <c r="C24" s="4" t="str">
+        <f t="shared" ref="C24:O24" si="3">C6</f>
+        <v>no</v>
+      </c>
+      <c r="D24" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>win</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4">
+        <f>G6</f>
+        <v>1014</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4">
+        <f>I6</f>
+        <v>5185</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4">
+        <f>K6</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4">
+        <f>M6</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="14">
+        <f>O6</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="str">
+        <f>B7</f>
+        <v>max</v>
+      </c>
+      <c r="C25" s="4" t="str">
+        <f t="shared" ref="C25:O25" si="4">C7</f>
+        <v>no</v>
+      </c>
+      <c r="D25" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>check path free</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="F25" s="4">
+        <f>E24/E25</f>
+        <v>2.116883116883117</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4">
+        <f>G7</f>
+        <v>810</v>
+      </c>
+      <c r="I25" s="4">
+        <f>H24/H25</f>
+        <v>1.2518518518518518</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4">
+        <f>I7</f>
+        <v>4490</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4">
+        <f>K7</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4">
+        <f>M7</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="14">
+        <f>O7</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="str">
+        <f>B8</f>
+        <v>max</v>
+      </c>
+      <c r="C26" s="4" t="str">
+        <f t="shared" ref="C26:O26" si="5">C8</f>
+        <v>no</v>
+      </c>
+      <c r="D26" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>make path free</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="5"/>
+        <v>21.5</v>
+      </c>
+      <c r="F26" s="4">
+        <f>E25/E26</f>
+        <v>3.5813953488372094</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4">
+        <f>G8</f>
+        <v>598</v>
+      </c>
+      <c r="I26" s="4">
+        <f>H25/H26</f>
+        <v>1.3545150501672241</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4">
+        <f>I8</f>
+        <v>3537</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4">
+        <f>K8</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4">
+        <f>M8</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="14">
+        <f>O8</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="str">
+        <f>B3</f>
+        <v>single</v>
+      </c>
+      <c r="C28" s="3" t="str">
+        <f t="shared" ref="C28:O28" si="6">C3</f>
+        <v>no</v>
+      </c>
+      <c r="D28" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>win</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="6"/>
         <v>597</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="2">
-        <v>221</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2">
-        <v>19.5</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="F28" s="3"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="3">
+        <f>G3</f>
+        <v>2856</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3">
+        <f>M3</f>
+        <v>166694</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="3">
+        <f>K3</f>
+        <v>80085</v>
+      </c>
+      <c r="O28" s="3"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="15">
+        <f>O3</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="str">
+        <f>B6</f>
+        <v>max</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f t="shared" ref="C29:O29" si="7">C6</f>
+        <v>no</v>
+      </c>
+      <c r="D29" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>win</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="7"/>
+        <v>163</v>
+      </c>
+      <c r="F29" s="3">
+        <f>E28/E29</f>
+        <v>3.6625766871165646</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="3">
+        <f>G6</f>
+        <v>1014</v>
+      </c>
+      <c r="I29" s="3">
+        <f>H28/H29</f>
+        <v>2.8165680473372783</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="3">
+        <f>I6</f>
+        <v>5185</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="3">
+        <f>K6</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="3">
+        <f>M6</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="3"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="15">
+        <f>O6</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="str">
+        <f>B4</f>
+        <v>single</v>
+      </c>
+      <c r="C31" s="3" t="str">
+        <f t="shared" ref="C31:O31" si="8">C4</f>
+        <v>no</v>
+      </c>
+      <c r="D31" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>check path free</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="8"/>
         <v>103</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2">
-        <v>101</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>9918.8912</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2">
-        <v>101</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <v>9918</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="2">
-        <v>90</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>6408</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="2">
-        <v>90</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2">
-        <v>23</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="6">
-        <v>70278</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="6">
-        <v>8849</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="3">
+        <f>G4</f>
+        <v>1921</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="3">
+        <f>I4</f>
+        <v>68061</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="3">
+        <f>K4</f>
+        <v>72973</v>
+      </c>
+      <c r="O31" s="3"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="3">
+        <f>M4</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="15">
+        <f>O4</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="4"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="str">
+        <f>B7</f>
+        <v>max</v>
+      </c>
+      <c r="C32" s="3" t="str">
+        <f t="shared" ref="C32:O32" si="9">C7</f>
+        <v>no</v>
+      </c>
+      <c r="D32" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>check path free</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="9"/>
+        <v>77</v>
+      </c>
+      <c r="F32" s="3">
+        <f>E31/E32</f>
+        <v>1.3376623376623376</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="3">
+        <f>G7</f>
+        <v>810</v>
+      </c>
+      <c r="I32" s="3">
+        <f>H31/H32</f>
+        <v>2.3716049382716049</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="3">
+        <f>I7</f>
+        <v>4490</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="3">
+        <f>K7</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="3"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="3">
+        <f>M7</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="3"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="15">
+        <f>O7</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="4"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="4"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="str">
+        <f>B5</f>
+        <v>single</v>
+      </c>
+      <c r="C34" s="3" t="str">
+        <f t="shared" ref="C34:O34" si="10">C5</f>
+        <v>no</v>
+      </c>
+      <c r="D34" s="3" t="str">
+        <f t="shared" si="10"/>
+        <v>make path free</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="10"/>
+        <v>29.5</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="3">
+        <f>G5</f>
+        <v>1178</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="3">
+        <f>I5</f>
+        <v>61333</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="3">
+        <f>K5</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="3">
+        <f>M5</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="3"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="15">
+        <f>O5</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="4"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B35" s="10" t="str">
+        <f>B8</f>
+        <v>max</v>
+      </c>
+      <c r="C35" s="3" t="str">
+        <f t="shared" ref="C35:O35" si="11">C8</f>
+        <v>no</v>
+      </c>
+      <c r="D35" s="3" t="str">
+        <f t="shared" si="11"/>
+        <v>make path free</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="11"/>
+        <v>21.5</v>
+      </c>
+      <c r="F35" s="3">
+        <f>E34/E35</f>
+        <v>1.3720930232558139</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="3">
+        <f>G8</f>
+        <v>598</v>
+      </c>
+      <c r="I35" s="3">
+        <f>H34/H35</f>
+        <v>1.9698996655518395</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3">
+        <f>I8</f>
+        <v>3537</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="3">
+        <f>K8</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="3"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="3">
+        <f>M8</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="3"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="15">
+        <f>O8</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="4"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="4"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="str">
+        <f>B6</f>
+        <v>max</v>
+      </c>
+      <c r="C37" s="10" t="str">
+        <f>C6</f>
+        <v>no</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f t="shared" ref="C37:O37" si="12">D6</f>
+        <v>win</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="12"/>
+        <v>163</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4">
+        <f>G6</f>
+        <v>1014</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4">
+        <f>I6</f>
+        <v>5185</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4">
+        <f>K6</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4">
+        <f>M6</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="14">
+        <f>O6</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="4"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="str">
+        <f>B9</f>
+        <v>max</v>
+      </c>
+      <c r="C38" s="10" t="str">
+        <f t="shared" ref="C38:O38" si="13">C9</f>
+        <v>yes</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <f t="shared" si="13"/>
+        <v>win</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="13"/>
+        <v>138</v>
+      </c>
+      <c r="F38" s="4">
+        <f>E37/E38</f>
+        <v>1.181159420289855</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4">
+        <f>G9</f>
+        <v>783</v>
+      </c>
+      <c r="I38" s="4">
+        <f>H37/H38</f>
+        <v>1.2950191570881227</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4">
+        <f>I9</f>
+        <v>3774</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4">
+        <f>K9</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4">
+        <f>M9</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="14">
+        <f>O9</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="4"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="4"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="str">
+        <f>B7</f>
+        <v>max</v>
+      </c>
+      <c r="C40" s="10" t="str">
+        <f t="shared" ref="C40:O40" si="14">C7</f>
+        <v>no</v>
+      </c>
+      <c r="D40" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v>check path free</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="14"/>
+        <v>77</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4">
+        <f>G7</f>
+        <v>810</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4">
+        <f>I7</f>
+        <v>4490</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4">
+        <f>K7</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4">
+        <f>M7</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="14">
+        <f>O7</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="str">
+        <f>B10</f>
+        <v>max</v>
+      </c>
+      <c r="C41" s="10" t="str">
+        <f t="shared" ref="C41:O41" si="15">C10</f>
+        <v>yes</v>
+      </c>
+      <c r="D41" s="4" t="str">
+        <f t="shared" si="15"/>
+        <v>check path free</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="15"/>
+        <v>65</v>
+      </c>
+      <c r="F41" s="4">
+        <f>E40/E41</f>
+        <v>1.1846153846153846</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4">
+        <f>G10</f>
+        <v>617</v>
+      </c>
+      <c r="I41" s="4">
+        <f>H40/H41</f>
+        <v>1.3128038897893031</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4">
+        <f>I10</f>
+        <v>3353</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4">
+        <f>K10</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4">
+        <f>M10</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="14">
+        <f>O10</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="str">
+        <f>B8</f>
+        <v>max</v>
+      </c>
+      <c r="C43" s="10" t="str">
+        <f t="shared" ref="C43:O43" si="16">C8</f>
+        <v>no</v>
+      </c>
+      <c r="D43" s="4" t="str">
+        <f t="shared" si="16"/>
+        <v>make path free</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="16"/>
+        <v>21.5</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4">
+        <f>G8</f>
+        <v>598</v>
+      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4">
+        <f>I8</f>
+        <v>3537</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4">
+        <f>K8</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4">
+        <f>M8</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="14">
+        <f>O8</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="str">
+        <f>B11</f>
+        <v>max</v>
+      </c>
+      <c r="C44" s="10" t="str">
+        <f t="shared" ref="C44:O44" si="17">C11</f>
+        <v>yes</v>
+      </c>
+      <c r="D44" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>make path free</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="17"/>
+        <v>18.8</v>
+      </c>
+      <c r="F44" s="4">
+        <f>E43/E44</f>
+        <v>1.1436170212765957</v>
+      </c>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4">
+        <f>G11</f>
+        <v>476</v>
+      </c>
+      <c r="I44" s="4">
+        <f>H43/H44</f>
+        <v>1.2563025210084033</v>
+      </c>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4">
+        <f>I11</f>
+        <v>2704</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4">
+        <f>K11</f>
+        <v>5489</v>
+      </c>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4">
+        <f>M11</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="14">
+        <f>O11</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/average_moves_per_algorithm.xlsx
+++ b/results/average_moves_per_algorithm.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
   <si>
     <t>100k</t>
   </si>
@@ -95,7 +95,7 @@
     <t>All possible comparisons of algorithms</t>
   </si>
   <si>
-    <t>a/b</t>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -220,35 +220,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,15 +263,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -581,7 +548,7 @@
   <dimension ref="B1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,12 +557,16 @@
     <col min="3" max="3" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="8" width="7.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="7.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="2" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="7.28515625" style="2" customWidth="1"/>
     <col min="17" max="17" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="7.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="7.28515625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" style="2" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -671,7 +642,7 @@
         <v>2856</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
         <v>80200</v>
       </c>
       <c r="J3" s="5"/>
@@ -683,7 +654,9 @@
         <v>166694</v>
       </c>
       <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="O3" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="P3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="5" t="s">
@@ -728,9 +701,13 @@
         <v>72973</v>
       </c>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="O4" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="S4" s="4" t="s">
         <v>3</v>
       </c>
@@ -769,11 +746,17 @@
         <v>61333</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="4">
+        <v>70418</v>
+      </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4">
+        <v>163435</v>
+      </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="S5" s="4" t="s">
         <v>3</v>
       </c>
@@ -812,11 +795,17 @@
         <v>5185</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4">
+        <v>7725</v>
+      </c>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4">
+        <v>6535</v>
+      </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="S6" s="4" t="s">
         <v>9</v>
       </c>
@@ -855,11 +844,17 @@
         <v>4490</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="M7" s="4">
+        <v>6037</v>
+      </c>
       <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="S7" s="4" t="s">
         <v>9</v>
       </c>
@@ -898,11 +893,17 @@
         <v>3537</v>
       </c>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="M8" s="4">
+        <v>5761</v>
+      </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="S8" s="4" t="s">
         <v>9</v>
       </c>
@@ -941,11 +942,17 @@
         <v>3774</v>
       </c>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="M9" s="4">
+        <v>5735</v>
+      </c>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="O9" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="S9" s="4" t="s">
         <v>9</v>
       </c>
@@ -984,11 +991,17 @@
         <v>3353</v>
       </c>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4">
+        <v>6161</v>
+      </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="M10" s="4">
+        <v>5417</v>
+      </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="O10" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="S10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1031,9 +1044,13 @@
         <v>5489</v>
       </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
+      <c r="M11" s="4">
+        <v>5225</v>
+      </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="O11" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="S11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1089,13 +1106,21 @@
         <v>787</v>
       </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="I13" s="4">
+        <v>5664</v>
+      </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4">
+        <v>6968</v>
+      </c>
       <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="S13" s="4" t="s">
         <v>9</v>
       </c>
@@ -1112,12 +1137,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D18" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
@@ -1130,52 +1155,34 @@
       <c r="E19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7" t="s">
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="H19" s="8"/>
       <c r="I19" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" s="8"/>
-      <c r="N19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="7" t="s">
+      <c r="L19" s="7"/>
+      <c r="M19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="S19" s="8"/>
-      <c r="T19" s="7" t="s">
+      <c r="N19" s="8"/>
+      <c r="O19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="str">
         <f>B3</f>
         <v>single</v>
       </c>
       <c r="C20" s="5" t="str">
-        <f t="shared" ref="C20:O20" si="0">C3</f>
+        <f t="shared" ref="C20:E20" si="0">C3</f>
         <v>no</v>
       </c>
       <c r="D20" s="11" t="str">
@@ -1187,44 +1194,38 @@
         <v>597</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5">
+      <c r="G20" s="5">
         <f>G3</f>
         <v>2856</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5">
+        <f>M3</f>
+        <v>166694</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5">
+        <f>K3</f>
+        <v>80085</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5">
         <f>M3</f>
         <v>166694</v>
       </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5">
-        <f>K3</f>
-        <v>80085</v>
-      </c>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5">
-        <f>M3</f>
-        <v>166694</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="16">
+      <c r="N20" s="5"/>
+      <c r="O20" s="5" t="str">
         <f>O3</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="5"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="str">
         <f>B4</f>
         <v>single</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f t="shared" ref="C21:O21" si="1">C4</f>
+        <f t="shared" ref="C21:E21" si="1">C4</f>
         <v>no</v>
       </c>
       <c r="D21" s="10" t="str">
@@ -1235,51 +1236,39 @@
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="F21" s="4">
-        <f>E20/E21</f>
-        <v>5.7961165048543686</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
         <f>G4</f>
         <v>1921</v>
       </c>
+      <c r="H21" s="4"/>
       <c r="I21" s="4">
-        <f>H20/H21</f>
-        <v>1.4867256637168142</v>
+        <f>I4</f>
+        <v>68061</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4">
-        <f>I4</f>
-        <v>68061</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4">
         <f>K4</f>
         <v>72973</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4">
-        <f>M4</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="14">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
+        <f>M5</f>
+        <v>163435</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4" t="str">
         <f>O4</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="4"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="str">
         <f>B5</f>
         <v>single</v>
       </c>
       <c r="C22" s="4" t="str">
-        <f t="shared" ref="C22:N22" si="2">C5</f>
+        <f t="shared" ref="C22:E22" si="2">C5</f>
         <v>no</v>
       </c>
       <c r="D22" s="10" t="str">
@@ -1290,73 +1279,55 @@
         <f t="shared" si="2"/>
         <v>29.5</v>
       </c>
-      <c r="F22" s="4">
-        <f>E21/E22</f>
-        <v>3.4915254237288136</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
         <f>G5</f>
         <v>1178</v>
       </c>
+      <c r="H22" s="4"/>
       <c r="I22" s="4">
-        <f>H21/H22</f>
-        <v>1.6307300509337861</v>
+        <f>I5</f>
+        <v>61333</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4">
-        <f>I5</f>
-        <v>61333</v>
+        <f>K5</f>
+        <v>70418</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4">
-        <f>K5</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4">
-        <f>M5</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="14">
+      <c r="M22" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4" t="str">
         <f>O5</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="4"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="3"/>
       <c r="J23" s="4"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="4"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="str">
         <f>B6</f>
         <v>max</v>
       </c>
       <c r="C24" s="4" t="str">
-        <f t="shared" ref="C24:O24" si="3">C6</f>
+        <f t="shared" ref="C24:E24" si="3">C6</f>
         <v>no</v>
       </c>
       <c r="D24" s="10" t="str">
@@ -1368,44 +1339,38 @@
         <v>163</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4">
+      <c r="G24" s="4">
         <f>G6</f>
         <v>1014</v>
       </c>
-      <c r="I24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4">
+        <f>I6</f>
+        <v>5185</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4">
-        <f>I6</f>
-        <v>5185</v>
+        <f>K6</f>
+        <v>7725</v>
       </c>
       <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4">
-        <f>K6</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4">
-        <f>M6</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="14">
+      <c r="M24" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4" t="str">
         <f>O6</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="4"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="str">
         <f>B7</f>
         <v>max</v>
       </c>
       <c r="C25" s="4" t="str">
-        <f t="shared" ref="C25:O25" si="4">C7</f>
+        <f t="shared" ref="C25:E25" si="4">C7</f>
         <v>no</v>
       </c>
       <c r="D25" s="10" t="str">
@@ -1416,51 +1381,39 @@
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
-      <c r="F25" s="4">
-        <f>E24/E25</f>
-        <v>2.116883116883117</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
         <f>G7</f>
         <v>810</v>
       </c>
+      <c r="H25" s="4"/>
       <c r="I25" s="4">
-        <f>H24/H25</f>
-        <v>1.2518518518518518</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4">
         <f>I7</f>
         <v>4490</v>
       </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4" t="str">
+        <f>K7</f>
+        <v>x</v>
+      </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4">
-        <f>K7</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4">
-        <f>M7</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="14">
+      <c r="M25" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4" t="str">
         <f>O7</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="4"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="str">
         <f>B8</f>
         <v>max</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f t="shared" ref="C26:O26" si="5">C8</f>
+        <f t="shared" ref="C26:E26" si="5">C8</f>
         <v>no</v>
       </c>
       <c r="D26" s="10" t="str">
@@ -1471,45 +1424,33 @@
         <f t="shared" si="5"/>
         <v>21.5</v>
       </c>
-      <c r="F26" s="4">
-        <f>E25/E26</f>
-        <v>3.5813953488372094</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
         <f>G8</f>
         <v>598</v>
       </c>
+      <c r="H26" s="4"/>
       <c r="I26" s="4">
-        <f>H25/H26</f>
-        <v>1.3545150501672241</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4">
         <f>I8</f>
         <v>3537</v>
       </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4" t="str">
+        <f>K8</f>
+        <v>x</v>
+      </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4">
-        <f>K8</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4">
-        <f>M8</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="14">
+      <c r="M26" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4" t="str">
         <f>O8</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="4"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1524,20 +1465,14 @@
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="4"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="str">
         <f>B3</f>
         <v>single</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f t="shared" ref="C28:O28" si="6">C3</f>
+        <f t="shared" ref="C28:E28" si="6">C3</f>
         <v>no</v>
       </c>
       <c r="D28" s="3" t="str">
@@ -1549,44 +1484,38 @@
         <v>597</v>
       </c>
       <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="3">
+      <c r="G28" s="3">
         <f>G3</f>
         <v>2856</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="3">
+        <f>M3</f>
+        <v>166694</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="K28" s="3">
+        <f>K3</f>
+        <v>80085</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
         <f>M3</f>
         <v>166694</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="3">
-        <f>K3</f>
-        <v>80085</v>
-      </c>
-      <c r="O28" s="3"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="3" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="15">
+      <c r="N28" s="4"/>
+      <c r="O28" s="3" t="str">
         <f>O3</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="4"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="str">
         <f>B6</f>
         <v>max</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f t="shared" ref="C29:O29" si="7">C6</f>
+        <f t="shared" ref="C29:E29" si="7">C6</f>
         <v>no</v>
       </c>
       <c r="D29" s="3" t="str">
@@ -1597,45 +1526,33 @@
         <f t="shared" si="7"/>
         <v>163</v>
       </c>
-      <c r="F29" s="3">
-        <f>E28/E29</f>
-        <v>3.6625766871165646</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="3">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3">
         <f>G6</f>
         <v>1014</v>
       </c>
+      <c r="H29" s="4"/>
       <c r="I29" s="3">
-        <f>H28/H29</f>
-        <v>2.8165680473372783</v>
+        <f>I6</f>
+        <v>5185</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="3">
-        <f>I6</f>
-        <v>5185</v>
+        <f>K6</f>
+        <v>7725</v>
       </c>
       <c r="L29" s="3"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="3">
-        <f>K6</f>
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="3">
-        <f>M6</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="3"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="15">
+      <c r="M29" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="3" t="str">
         <f>O6</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="4"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1650,20 +1567,14 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="4"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="str">
         <f>B4</f>
         <v>single</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f t="shared" ref="C31:O31" si="8">C4</f>
+        <f t="shared" ref="C31:E31" si="8">C4</f>
         <v>no</v>
       </c>
       <c r="D31" s="3" t="str">
@@ -1675,44 +1586,38 @@
         <v>103</v>
       </c>
       <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="3">
+      <c r="G31" s="3">
         <f>G4</f>
         <v>1921</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="3">
+        <f>I4</f>
+        <v>68061</v>
+      </c>
       <c r="J31" s="4"/>
       <c r="K31" s="3">
-        <f>I4</f>
-        <v>68061</v>
-      </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="3">
         <f>K4</f>
         <v>72973</v>
       </c>
-      <c r="O31" s="3"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="3">
-        <f>M4</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="3"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="15">
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
+        <f>M5</f>
+        <v>163435</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="3" t="str">
         <f>O4</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="4"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="str">
         <f>B7</f>
         <v>max</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f t="shared" ref="C32:O32" si="9">C7</f>
+        <f t="shared" ref="C32:E32" si="9">C7</f>
         <v>no</v>
       </c>
       <c r="D32" s="3" t="str">
@@ -1723,45 +1628,33 @@
         <f t="shared" si="9"/>
         <v>77</v>
       </c>
-      <c r="F32" s="3">
-        <f>E31/E32</f>
-        <v>1.3376623376623376</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="3">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
         <f>G7</f>
         <v>810</v>
       </c>
+      <c r="H32" s="4"/>
       <c r="I32" s="3">
-        <f>H31/H32</f>
-        <v>2.3716049382716049</v>
-      </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="3">
         <f>I7</f>
         <v>4490</v>
       </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="3" t="str">
+        <f>K7</f>
+        <v>x</v>
+      </c>
       <c r="L32" s="3"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="3">
-        <f>K7</f>
-        <v>0</v>
-      </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="3">
-        <f>M7</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="3"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="15">
+      <c r="M32" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="3" t="str">
         <f>O7</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="4"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1776,20 +1669,14 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="4"/>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="str">
         <f>B5</f>
         <v>single</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f t="shared" ref="C34:O34" si="10">C5</f>
+        <f t="shared" ref="C34:E34" si="10">C5</f>
         <v>no</v>
       </c>
       <c r="D34" s="3" t="str">
@@ -1801,44 +1688,38 @@
         <v>29.5</v>
       </c>
       <c r="F34" s="3"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="3">
+      <c r="G34" s="3">
         <f>G5</f>
         <v>1178</v>
       </c>
-      <c r="I34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="3">
+        <f>I5</f>
+        <v>61333</v>
+      </c>
       <c r="J34" s="4"/>
       <c r="K34" s="3">
-        <f>I5</f>
-        <v>61333</v>
+        <f>K5</f>
+        <v>70418</v>
       </c>
       <c r="L34" s="3"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="3">
-        <f>K5</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="3"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="3">
-        <f>M5</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="3"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="15">
+      <c r="M34" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N34" s="4"/>
+      <c r="O34" s="3" t="str">
         <f>O5</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="4"/>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="str">
         <f>B8</f>
         <v>max</v>
       </c>
       <c r="C35" s="3" t="str">
-        <f t="shared" ref="C35:O35" si="11">C8</f>
+        <f t="shared" ref="C35:E35" si="11">C8</f>
         <v>no</v>
       </c>
       <c r="D35" s="3" t="str">
@@ -1849,45 +1730,33 @@
         <f t="shared" si="11"/>
         <v>21.5</v>
       </c>
-      <c r="F35" s="3">
-        <f>E34/E35</f>
-        <v>1.3720930232558139</v>
-      </c>
-      <c r="G35" s="4"/>
-      <c r="H35" s="3">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3">
         <f>G8</f>
         <v>598</v>
       </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="3">
-        <f>H34/H35</f>
-        <v>1.9698996655518395</v>
-      </c>
-      <c r="J35" s="4"/>
-      <c r="K35" s="3">
         <f>I8</f>
         <v>3537</v>
       </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3" t="str">
+        <f>K8</f>
+        <v>x</v>
+      </c>
       <c r="L35" s="3"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="3">
-        <f>K8</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="3"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="3">
-        <f>M8</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="3"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="15">
+      <c r="M35" s="3" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="3" t="str">
         <f>O8</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="4"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -1902,14 +1771,8 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="4"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="str">
         <f>B6</f>
         <v>max</v>
@@ -1919,7 +1782,7 @@
         <v>no</v>
       </c>
       <c r="D37" s="4" t="str">
-        <f t="shared" ref="C37:O37" si="12">D6</f>
+        <f t="shared" ref="D37:E37" si="12">D6</f>
         <v>win</v>
       </c>
       <c r="E37" s="4">
@@ -1927,44 +1790,38 @@
         <v>163</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4">
+      <c r="G37" s="4">
         <f>G6</f>
         <v>1014</v>
       </c>
-      <c r="I37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4">
+        <f>I6</f>
+        <v>5185</v>
+      </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4">
-        <f>I6</f>
-        <v>5185</v>
+        <f>K6</f>
+        <v>7725</v>
       </c>
       <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4">
-        <f>K6</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4">
-        <f>M6</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="14">
+      <c r="M37" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4" t="str">
         <f>O6</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="4"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="str">
         <f>B9</f>
         <v>max</v>
       </c>
       <c r="C38" s="10" t="str">
-        <f t="shared" ref="C38:O38" si="13">C9</f>
+        <f t="shared" ref="C38:E38" si="13">C9</f>
         <v>yes</v>
       </c>
       <c r="D38" s="4" t="str">
@@ -1975,45 +1832,33 @@
         <f t="shared" si="13"/>
         <v>138</v>
       </c>
-      <c r="F38" s="4">
-        <f>E37/E38</f>
-        <v>1.181159420289855</v>
-      </c>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4">
+      <c r="F38" s="4"/>
+      <c r="G38" s="4">
         <f>G9</f>
         <v>783</v>
       </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="4">
-        <f>H37/H38</f>
-        <v>1.2950191570881227</v>
-      </c>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4">
         <f>I9</f>
         <v>3774</v>
       </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4" t="str">
+        <f>K9</f>
+        <v>x</v>
+      </c>
       <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4">
-        <f>K9</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4">
-        <f>M9</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="14">
+      <c r="M38" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4" t="str">
         <f>O9</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="4"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2028,20 +1873,14 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="4"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="str">
         <f>B7</f>
         <v>max</v>
       </c>
       <c r="C40" s="10" t="str">
-        <f t="shared" ref="C40:O40" si="14">C7</f>
+        <f t="shared" ref="C40:E40" si="14">C7</f>
         <v>no</v>
       </c>
       <c r="D40" s="4" t="str">
@@ -2053,44 +1892,38 @@
         <v>77</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4">
+      <c r="G40" s="4">
         <f>G7</f>
         <v>810</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4">
+      <c r="H40" s="4"/>
+      <c r="I40" s="4">
         <f>I7</f>
         <v>4490</v>
       </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4" t="str">
+        <f>K7</f>
+        <v>x</v>
+      </c>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4">
-        <f>K7</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="4">
-        <f>M7</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="4"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="14">
+      <c r="M40" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4" t="str">
         <f>O7</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="4"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="str">
         <f>B10</f>
         <v>max</v>
       </c>
       <c r="C41" s="10" t="str">
-        <f t="shared" ref="C41:O41" si="15">C10</f>
+        <f t="shared" ref="C41:E41" si="15">C10</f>
         <v>yes</v>
       </c>
       <c r="D41" s="4" t="str">
@@ -2101,45 +1934,33 @@
         <f t="shared" si="15"/>
         <v>65</v>
       </c>
-      <c r="F41" s="4">
-        <f>E40/E41</f>
-        <v>1.1846153846153846</v>
-      </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4">
         <f>G10</f>
         <v>617</v>
       </c>
+      <c r="H41" s="4"/>
       <c r="I41" s="4">
-        <f>H40/H41</f>
-        <v>1.3128038897893031</v>
-      </c>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4">
         <f>I10</f>
         <v>3353</v>
       </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
       <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4">
-        <f>K10</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4">
-        <f>M10</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="14">
+      <c r="M41" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4" t="str">
         <f>O10</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="4"/>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2154,20 +1975,14 @@
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="4"/>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="str">
         <f>B8</f>
         <v>max</v>
       </c>
       <c r="C43" s="10" t="str">
-        <f t="shared" ref="C43:O43" si="16">C8</f>
+        <f t="shared" ref="C43:E43" si="16">C8</f>
         <v>no</v>
       </c>
       <c r="D43" s="4" t="str">
@@ -2179,44 +1994,38 @@
         <v>21.5</v>
       </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4">
+      <c r="G43" s="4">
         <f>G8</f>
         <v>598</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4">
+      <c r="H43" s="4"/>
+      <c r="I43" s="4">
         <f>I8</f>
         <v>3537</v>
       </c>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4" t="str">
+        <f>K8</f>
+        <v>x</v>
+      </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4">
-        <f>K8</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4">
-        <f>M8</f>
-        <v>0</v>
-      </c>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="14">
+      <c r="M43" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4" t="str">
         <f>O8</f>
-        <v>0</v>
-      </c>
-      <c r="U43" s="4"/>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="str">
         <f>B11</f>
         <v>max</v>
       </c>
       <c r="C44" s="10" t="str">
-        <f t="shared" ref="C44:O44" si="17">C11</f>
+        <f t="shared" ref="C44:E44" si="17">C11</f>
         <v>yes</v>
       </c>
       <c r="D44" s="4" t="str">
@@ -2227,43 +2036,31 @@
         <f t="shared" si="17"/>
         <v>18.8</v>
       </c>
-      <c r="F44" s="4">
-        <f>E43/E44</f>
-        <v>1.1436170212765957</v>
-      </c>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4">
         <f>G11</f>
         <v>476</v>
       </c>
+      <c r="H44" s="4"/>
       <c r="I44" s="4">
-        <f>H43/H44</f>
-        <v>1.2563025210084033</v>
+        <f>I11</f>
+        <v>2704</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4">
-        <f>I11</f>
-        <v>2704</v>
-      </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4">
         <f>K11</f>
         <v>5489</v>
       </c>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4">
-        <f>M11</f>
-        <v>0</v>
-      </c>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="14">
+      <c r="L44" s="4"/>
+      <c r="M44" s="4" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4" t="str">
         <f>O11</f>
-        <v>0</v>
-      </c>
-      <c r="U44" s="4"/>
+        <v>x</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/average_moves_per_algorithm.xlsx
+++ b/results/average_moves_per_algorithm.xlsx
@@ -24,13 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
-  <si>
-    <t>100k</t>
-  </si>
-  <si>
-    <t>1 mln</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
   <si>
     <t>step size</t>
   </si>
@@ -57,12 +51,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>AoM</t>
   </si>
   <si>
     <t>win</t>
@@ -545,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W44"/>
+  <dimension ref="B1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,69 +558,54 @@
     <col min="21" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D1" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5">
         <v>597</v>
@@ -655,35 +628,19 @@
       </c>
       <c r="N3" s="5"/>
       <c r="O3" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="V3" s="5">
-        <v>597</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4">
         <v>103</v>
@@ -702,37 +659,22 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="4">
-        <v>103</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="E5" s="12">
         <v>29.5</v>
@@ -755,33 +697,18 @@
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V5" s="12">
-        <v>29.5</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="4">
         <v>163</v>
@@ -804,33 +731,18 @@
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V6" s="4">
-        <v>163</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E7" s="4">
         <v>77</v>
@@ -845,7 +757,7 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4">
@@ -853,33 +765,18 @@
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V7" s="4">
-        <v>77</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="E8" s="4">
         <v>21.5</v>
@@ -894,7 +791,7 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4">
@@ -902,33 +799,18 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V8" s="4">
-        <v>21.5</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="E9" s="4">
         <v>138</v>
@@ -943,7 +825,7 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4">
@@ -951,33 +833,18 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="V9" s="4">
-        <v>138</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E10" s="4">
         <v>65</v>
@@ -1000,33 +867,18 @@
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="4">
-        <v>65</v>
-      </c>
-      <c r="W10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" s="4">
         <v>18.8</v>
@@ -1049,25 +901,10 @@
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="V11" s="4">
-        <v>18.8</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1082,21 +919,16 @@
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="E13" s="4">
         <v>21.6</v>
@@ -1115,65 +947,50 @@
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="V13" s="4">
-        <v>21.6</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D18" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="D19" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">

--- a/results/average_moves_per_algorithm.xlsx
+++ b/results/average_moves_per_algorithm.xlsx
@@ -536,7 +536,7 @@
   <dimension ref="B1:P44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +881,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="4">
-        <v>18.8</v>
+        <v>17</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="E44" s="4">
         <f t="shared" si="17"/>
-        <v>18.8</v>
+        <v>17</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4">
